--- a/result/组合模型结果.xlsx
+++ b/result/组合模型结果.xlsx
@@ -1,43 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyJupyter\mypaper\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Myjupyter\Mypaper\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2694354-2518-4621-AE8E-1AF0A922A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9120"/>
+    <workbookView xWindow="3810" yWindow="4875" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.10" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.11" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.12" hidden="1">Sheet1!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.13" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.14" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.15" hidden="1">Sheet1!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.16" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.17" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.18" hidden="1">Sheet1!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.19" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.2" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.20" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.21" hidden="1">Sheet1!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.4" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.6" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.7" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.8" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.9" hidden="1">Sheet1!$A$2:$A$6</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,50 +27,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Model_name</t>
   </si>
   <si>
     <t>r2-score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RMSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BiLSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGBoost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightGBM</t>
   </si>
   <si>
     <t>CNN-BiLSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGBoost+BiLSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGBoost+CNN-BiLSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightGBM+BiLSTM</t>
+  </si>
+  <si>
+    <t>lightGBM+CNN-BiLSTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -445,20 +412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,93 +443,93 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.96460500218630096</v>
+        <v>0.96460500199999999</v>
       </c>
       <c r="C2" s="2">
-        <v>1.82771365645306E-3</v>
+        <v>1.827714E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>4.2751767875177503E-2</v>
+        <v>4.2751768000000002E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>2.9179116863423098E-2</v>
+        <v>2.9179117000000001E-2</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.98138399666456799</v>
+        <v>0.98093640800000004</v>
       </c>
       <c r="C3" s="2">
-        <v>9.6128619999999996E-4</v>
+        <v>9.8439899999999995E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>3.1004614999999999E-2</v>
+        <v>3.1375128000000002E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0054860000000001E-2</v>
+        <v>2.1199586999999999E-2</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.97322214215653702</v>
+        <v>0.97322214200000001</v>
       </c>
       <c r="C4" s="2">
-        <v>1.38274500619163E-3</v>
+        <v>1.3827449999999999E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.7185279428715301E-2</v>
+        <v>3.7185279000000002E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>1.3599438024481899E-2</v>
+        <v>1.3599438E-2</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.97397215946113902</v>
+        <v>0.975197596</v>
       </c>
       <c r="C5" s="2">
-        <v>1.34401589330599E-3</v>
+        <v>1.2807370000000001E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>3.6660822321737299E-2</v>
+        <v>3.5787389000000003E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4732691685116801E-2</v>
+        <v>2.3601589999999999E-2</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.98754810287734696</v>
+        <v>0.98745925000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>6.4298640564015397E-4</v>
+        <v>6.4757499999999995E-4</v>
       </c>
       <c r="D6" s="2">
-        <v>2.53571766101858E-2</v>
+        <v>2.5447485999999998E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>8.7798245414430504E-3</v>
+        <v>8.7206650000000007E-3</v>
       </c>
       <c r="F6" s="1"/>
     </row>

--- a/result/组合模型结果.xlsx
+++ b/result/组合模型结果.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Myjupyter\Mypaper\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyJupyter\mypaper\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2694354-2518-4621-AE8E-1AF0A922A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="4875" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3816" yWindow="4872" windowWidth="28800" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Model_name</t>
   </si>
@@ -42,26 +41,31 @@
     <t>MAE</t>
   </si>
   <si>
+    <t>lightGBM</t>
+  </si>
+  <si>
+    <t>CNN-BiLSTM</t>
+  </si>
+  <si>
+    <t>lightGBM+BiLSTM</t>
+  </si>
+  <si>
+    <t>lightGBM+CNN-BiLSTM</t>
+  </si>
+  <si>
+    <t>BiGRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BiLSTM</t>
-  </si>
-  <si>
-    <t>lightGBM</t>
-  </si>
-  <si>
-    <t>CNN-BiLSTM</t>
-  </si>
-  <si>
-    <t>lightGBM+BiLSTM</t>
-  </si>
-  <si>
-    <t>lightGBM+CNN-BiLSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +101,13 @@
       <name val="Var(--notebook-cell-output-font"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +142,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,20 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,95 +457,113 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.95669259302259702</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.45266794012893E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.9524418219702403E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.4953381876269903E-2</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.96460500199999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.827714E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.2751768000000002E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.9179117000000001E-2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.96460500199999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.827714E-3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.2751768000000002E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.9179117000000001E-2</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.98093640800000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.8439899999999995E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.1375128000000002E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.1199586999999999E-2</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.98093640800000004</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.8439899999999995E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.1375128000000002E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.1199586999999999E-2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2">
+        <v>0.97322214200000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.3827449999999999E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.7185279000000002E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.3599438E-2</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.97322214200000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.3827449999999999E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.7185279000000002E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.3599438E-2</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="2">
+        <v>0.975197596</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2807370000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5787389000000003E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.3601589999999999E-2</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.975197596</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.2807370000000001E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.5787389000000003E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.3601589999999999E-2</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>0.98745925000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>6.4757499999999995E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>2.5447485999999998E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>8.7206650000000007E-3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result/组合模型结果.xlsx
+++ b/result/组合模型结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="4872" windowWidth="28800" windowHeight="11328"/>
+    <workbookView xWindow="3816" yWindow="5472" windowWidth="28800" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Model_name</t>
-  </si>
-  <si>
-    <t>r2-score</t>
-  </si>
-  <si>
-    <t>MSE</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -58,6 +52,28 @@
   </si>
   <si>
     <t>BiLSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ballycotton Harbour</t>
+  </si>
+  <si>
+    <t>Howth Harbour</t>
+  </si>
+  <si>
+    <t>Ballyglass Harbour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castletownbere Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galway Port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,31 +98,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF616161"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF616161"/>
-      <name val="Var(--notebook-cell-output-font"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,20 +127,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,19 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,120 +439,428 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.9524418219702403E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.4953381876269903E-2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.2751768000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9179117000000001E-2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1">
+        <v>3.1375128000000002E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.1199586999999999E-2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="1">
+        <v>3.7185279000000002E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3599438E-2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.95669259302259702</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2.45266794012893E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4.9524418219702403E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.4953381876269903E-2</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.96460500199999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.827714E-3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.2751768000000002E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.9179117000000001E-2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.98093640800000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.8439899999999995E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.1375128000000002E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.1199586999999999E-2</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1">
+        <v>3.5787389000000003E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.3601589999999999E-2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.97322214200000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.3827449999999999E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.7185279000000002E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.3599438E-2</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>2.5447485999999998E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.7206650000000007E-3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.1644063478364598E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.68854863249114E-2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.975197596</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.2807370000000001E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.5787389000000003E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.3601589999999999E-2</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="1">
+        <v>2.7732661236967798E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.3946086829031599E-2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.95573328565119E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6318509946104801E-2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.71631356818394E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.48193368046619E-2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.68111821817619E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.3121536477396998E-2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.1099314850553901E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.0307986941209895E-3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.98745925000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.4757499999999995E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.5447485999999998E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8.7206650000000007E-3</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="B14" s="1">
+        <v>3.2248081400197297E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.6693676083748501E-2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.5999129179623598E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.01592234321949E-2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.85022772200081E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5060243772160699E-2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.9288779467045593E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.1650116845530503E-3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.8508617986651798E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.4846721795849701E-2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.5975163373508004E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.1324859932887603E-3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.3542879135908997E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.6667455164645502E-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.39942486436708E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.95061180936889E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2023546108463601E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.7719420950155201E-2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.7292546642943499E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.32726036900892E-2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.0887749591747499E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.6871275313683501E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.41436117958013E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.08955196570335E-2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.7231692854926703E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.16027225807919E-2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.3490011131267199E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.89130977109768E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.9167391896786599E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.53161804111378E-2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.8843521830326592E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.4823694853187496E-3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.0804902971562399E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.6301854691577701E-2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6.6056853720084198E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.3387128024238797E-3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result/组合模型结果.xlsx
+++ b/result/组合模型结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="5472" windowWidth="28800" windowHeight="11328"/>
+    <workbookView xWindow="3816" yWindow="6072" windowWidth="28800" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>港口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ballycotton Harbour</t>
   </si>
   <si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>Galway Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,11 +130,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,18 +423,18 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,427 +445,427 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>4.9524418219702403E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>3.4953381876269903E-2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>4.2751768000000002E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2.9179117000000001E-2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3.1375128000000002E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2.1199586999999999E-2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>3.7185279000000002E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1.3599438E-2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>3.5787389000000003E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>2.3601589999999999E-2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2.5447485999999998E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>8.7206650000000007E-3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>3.1644063478364598E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>2.68854863249114E-2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2.7732661236967798E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2.3946086829031599E-2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1.95573328565119E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1.6318509946104801E-2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1.71631356818394E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1.48193368046619E-2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>2.68111821817619E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2.3121536477396998E-2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1.1099314850553901E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>9.0307986941209895E-3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>3.2248081400197297E-2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>2.6693676083748501E-2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>3.5999129179623598E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>3.01592234321949E-2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1.85022772200081E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>1.5060243772160699E-2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>7.9288779467045593E-3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>6.1650116845530503E-3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>2.8508617986651798E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>2.4846721795849701E-2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>6.5975163373508004E-3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>5.1324859932887603E-3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>3.3542879135908997E-2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>2.6667455164645502E-2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>2.39942486436708E-2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1.95061180936889E-2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>2.2023546108463601E-2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1.7719420950155201E-2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>1.7292546642943499E-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>1.32726036900892E-2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>2.0887749591747499E-2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>1.6871275313683501E-2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1.41436117958013E-2</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>1.08955196570335E-2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>3.7231692854926703E-2</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>3.16027225807919E-2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>3.3490011131267199E-2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>2.89130977109768E-2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>1.9167391896786599E-2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>1.53161804111378E-2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>7.8843521830326592E-3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>6.4823694853187496E-3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>3.0804902971562399E-2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>2.6301854691577701E-2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>6.6056853720084198E-3</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>5.3387128024238797E-3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/result/组合模型结果.xlsx
+++ b/result/组合模型结果.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="6072" windowWidth="28800" windowHeight="11328"/>
+    <workbookView xWindow="3810" yWindow="6675" windowWidth="28800" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Model_name</t>
   </si>
@@ -74,6 +77,36 @@
   </si>
   <si>
     <t>Port_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-BiGRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightGBM - CNN-BiGRU
+(combination model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-BiGRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightGBM - CNN-BiGRU
+(combination model)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
+    <numFmt numFmtId="185" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,14 +164,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,21 +466,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -462,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -490,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -504,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -602,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -616,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -728,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -826,7 +876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,7 +918,256 @@
         <v>13</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1.95573328565119E-2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.71631356818394E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.1099314850553901E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <f>(B36-D36)/B36</f>
+        <v>0.43247297921514788</v>
+      </c>
+      <c r="F36" s="6">
+        <f>(C36-D36)/C36</f>
+        <v>0.35330495217734192</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1.6318509946104801E-2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.48193368046619E-2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>9.0307986941209895E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <f>(G36-I36)/G36</f>
+        <v>0.44659170941789172</v>
+      </c>
+      <c r="K36" s="1">
+        <f>(H36-I36)/H36</f>
+        <v>0.39060709577232494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3.1375128000000002E-2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3.7185279000000002E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2.5447485999999998E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E40" si="0">(B37-D37)/B37</f>
+        <v>0.18892805791899889</v>
+      </c>
+      <c r="F37" s="6">
+        <f>(C37-D37)/C37</f>
+        <v>0.31565698350683352</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2.1199586999999999E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1.3599438E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>8.7206650000000007E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" ref="J37:J40" si="1">(G37-I37)/G37</f>
+        <v>0.58863986359734266</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" ref="K37:K40" si="2">(H37-I37)/H37</f>
+        <v>0.35874813356257806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1.85022772200081E-2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>7.9288779467045593E-3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>6.5975163373508004E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64342138759999012</v>
+      </c>
+      <c r="F38" s="6">
+        <f>(C38-D38)/C38</f>
+        <v>0.16791299075389429</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.5060243772160699E-2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6.1650116845530503E-3</v>
+      </c>
+      <c r="I38" s="6">
+        <v>5.1324859932887603E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65920299359454515</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16748154652348332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2.2023546108463601E-2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.7292546642943499E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.41436117958013E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35779589144520457</v>
+      </c>
+      <c r="F39" s="6">
+        <f>(C39-D39)/C39</f>
+        <v>0.18209780850451962</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.7719420950155201E-2</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1.32726036900892E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1.08955196570335E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3851085942547085</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17909703992975359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1.9167391896786599E-2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7.8843521830326592E-3</v>
+      </c>
+      <c r="D40" s="6">
+        <v>6.6056853720084198E-3</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65536858600382353</v>
+      </c>
+      <c r="F40" s="6">
+        <f>(C40-D40)/C40</f>
+        <v>0.16217778979685424</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1.53161804111378E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>6.4823694853187496E-3</v>
+      </c>
+      <c r="I40" s="6">
+        <v>5.3387128024238797E-3</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65143314722634027</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1764257167822692</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D31">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CNN-BiLSTM"/>
+        <filter val="lightGBM"/>
+        <filter val="lightGBM+CNN-BiLSTM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A34:A35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
